--- a/Dataset/address.xlsx
+++ b/Dataset/address.xlsx
@@ -509,14 +509,15 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" style="5" bestFit="1" customWidth="1"/>
